--- a/src/test/resources/data/WebOrderList.xlsx
+++ b/src/test/resources/data/WebOrderList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/techtorialacademy/IdeaProjects/Cucumber-Spark-Report/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B815360-DCE7-6047-8E08-6AEF5F0F7250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB64FCD-A8AD-FA41-B757-CC0ED2BC0138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="2580" windowWidth="27640" windowHeight="15800" xr2:uid="{5795397B-CB55-AC42-AA6C-17EAF42EC804}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -66,6 +66,204 @@
   </si>
   <si>
     <t>Exp</t>
+  </si>
+  <si>
+    <t>Paul Brown</t>
+  </si>
+  <si>
+    <t>ScreenSaver</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>03/12/2010</t>
+  </si>
+  <si>
+    <t>5, Ringer Street</t>
+  </si>
+  <si>
+    <t>Las Vegas, NV</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>123456789012</t>
+  </si>
+  <si>
+    <t>02/07</t>
+  </si>
+  <si>
+    <t>Mark Smith</t>
+  </si>
+  <si>
+    <t>FamilyAlbum</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>03/07/2010</t>
+  </si>
+  <si>
+    <t>9, Maple Valley</t>
+  </si>
+  <si>
+    <t>Whitestone, British</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>76743</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>770077007700</t>
+  </si>
+  <si>
+    <t>01/09</t>
+  </si>
+  <si>
+    <t>Steve Johns</t>
+  </si>
+  <si>
+    <t>02/26/2010</t>
+  </si>
+  <si>
+    <t>17, Park Avenue</t>
+  </si>
+  <si>
+    <t>Salmon Island</t>
+  </si>
+  <si>
+    <t>21233</t>
+  </si>
+  <si>
+    <t>444555444555</t>
+  </si>
+  <si>
+    <t>03/09</t>
+  </si>
+  <si>
+    <t>Charles Dodgeson</t>
+  </si>
+  <si>
+    <t>MyMoney</t>
+  </si>
+  <si>
+    <t>02/15/2010</t>
+  </si>
+  <si>
+    <t>45, Stone st.</t>
+  </si>
+  <si>
+    <t>Bringtone, TX</t>
+  </si>
+  <si>
+    <t>23233</t>
+  </si>
+  <si>
+    <t>American Express</t>
+  </si>
+  <si>
+    <t>333222333222</t>
+  </si>
+  <si>
+    <t>07/10</t>
+  </si>
+  <si>
+    <t>Susan McLaren</t>
+  </si>
+  <si>
+    <t>01/05/2010</t>
+  </si>
+  <si>
+    <t>7, Flower Street</t>
+  </si>
+  <si>
+    <t>Earlcastle</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>21444</t>
+  </si>
+  <si>
+    <t>999888777888</t>
+  </si>
+  <si>
+    <t>04/10</t>
+  </si>
+  <si>
+    <t>Bob Feather</t>
+  </si>
+  <si>
+    <t>12/31/2009</t>
+  </si>
+  <si>
+    <t>14, North av.</t>
+  </si>
+  <si>
+    <t>Milltown, WI</t>
+  </si>
+  <si>
+    <t>81734</t>
+  </si>
+  <si>
+    <t>111222111222</t>
+  </si>
+  <si>
+    <t>06/08</t>
+  </si>
+  <si>
+    <t>Samuel Clemens</t>
+  </si>
+  <si>
+    <t>12/21/2009</t>
+  </si>
+  <si>
+    <t>3, Garden st.</t>
+  </si>
+  <si>
+    <t>Hillsberry, UT</t>
+  </si>
+  <si>
+    <t>53665</t>
+  </si>
+  <si>
+    <t>398743242342</t>
+  </si>
+  <si>
+    <t>Clare Jefferson</t>
+  </si>
+  <si>
+    <t>12/04/2009</t>
+  </si>
+  <si>
+    <t>23, Owk Street</t>
+  </si>
+  <si>
+    <t>Greentown, CA</t>
+  </si>
+  <si>
+    <t>63325</t>
+  </si>
+  <si>
+    <t>770000770000</t>
+  </si>
+  <si>
+    <t>03/08</t>
   </si>
 </sst>
 </file>
@@ -418,11 +616,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E21D8CB-A4F1-F741-BC35-AF72C29456D3}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="2.1640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.33203125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.1640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.83203125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.1640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.1640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="6.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -457,6 +668,286 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
